--- a/data/pca/factorExposure/factorExposure_2018-01-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-01-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.00129549678282002</v>
+        <v>-8.446709754206861e-05</v>
       </c>
       <c r="C2">
-        <v>0.004615174298195432</v>
+        <v>0.02967994452923831</v>
       </c>
       <c r="D2">
-        <v>-0.02137079635079946</v>
+        <v>-0.02747720912587369</v>
       </c>
       <c r="E2">
-        <v>-0.04603942896123427</v>
+        <v>-0.01031206240592674</v>
       </c>
       <c r="F2">
-        <v>-0.05008996232340419</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03207867433844279</v>
+      </c>
+      <c r="G2">
+        <v>-0.0008628330225195084</v>
+      </c>
+      <c r="H2">
+        <v>-0.01728883970577004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.06704168208748415</v>
+        <v>-0.05520985245869636</v>
       </c>
       <c r="C3">
-        <v>-0.002776789234741372</v>
+        <v>0.09263257231959653</v>
       </c>
       <c r="D3">
-        <v>0.03408497498636534</v>
+        <v>-0.01081051930869971</v>
       </c>
       <c r="E3">
-        <v>-0.1821514967024349</v>
+        <v>-0.05745729576087993</v>
       </c>
       <c r="F3">
-        <v>-0.2231752368776956</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.1100804400321484</v>
+      </c>
+      <c r="G3">
+        <v>-0.04674923769670832</v>
+      </c>
+      <c r="H3">
+        <v>-0.05170994994304005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03451614394277989</v>
+        <v>-0.03897808700333399</v>
       </c>
       <c r="C4">
-        <v>-0.01547138016896101</v>
+        <v>0.05795804053524913</v>
       </c>
       <c r="D4">
-        <v>-0.03286118866935857</v>
+        <v>-0.02073820813957731</v>
       </c>
       <c r="E4">
-        <v>-0.006001656432298362</v>
+        <v>0.001130743700153506</v>
       </c>
       <c r="F4">
-        <v>-0.05693343734828567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.043237141879372</v>
+      </c>
+      <c r="G4">
+        <v>-0.03515644794625273</v>
+      </c>
+      <c r="H4">
+        <v>0.003725655584215842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.05193675122939287</v>
+        <v>-0.02335055593331459</v>
       </c>
       <c r="C6">
-        <v>-0.00463999711186618</v>
+        <v>0.05707065814073142</v>
       </c>
       <c r="D6">
-        <v>-0.04412138515974541</v>
+        <v>-0.01465297220740516</v>
       </c>
       <c r="E6">
-        <v>-0.005502963186398079</v>
+        <v>0.002989378721789707</v>
       </c>
       <c r="F6">
-        <v>-0.04160616000293379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01751849629165145</v>
+      </c>
+      <c r="G6">
+        <v>-0.01669224102586802</v>
+      </c>
+      <c r="H6">
+        <v>-0.0001089692506367142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02563542989573871</v>
+        <v>-0.006975590409961338</v>
       </c>
       <c r="C7">
-        <v>-0.07021611767744167</v>
+        <v>0.03055544717972968</v>
       </c>
       <c r="D7">
-        <v>-0.0047138559748746</v>
+        <v>-0.01202611169958904</v>
       </c>
       <c r="E7">
-        <v>-0.003291213566866265</v>
+        <v>0.01765379646420441</v>
       </c>
       <c r="F7">
-        <v>-0.0139517341923764</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.01735565445146793</v>
+      </c>
+      <c r="G7">
+        <v>-0.06741377021139641</v>
+      </c>
+      <c r="H7">
+        <v>-0.03076917550055035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01277804117654446</v>
+        <v>0.006101500092121121</v>
       </c>
       <c r="C8">
-        <v>-0.009956156303003649</v>
+        <v>0.003785106132989158</v>
       </c>
       <c r="D8">
-        <v>-0.02192252201843227</v>
+        <v>-0.00195499010716521</v>
       </c>
       <c r="E8">
-        <v>-0.005528954660168897</v>
+        <v>-0.004527365440862822</v>
       </c>
       <c r="F8">
-        <v>-0.0511104243939045</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02703283744351181</v>
+      </c>
+      <c r="G8">
+        <v>-0.02042920253643214</v>
+      </c>
+      <c r="H8">
+        <v>0.005702121964247382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.02635430665484585</v>
+        <v>-0.01726806916101147</v>
       </c>
       <c r="C9">
-        <v>-0.01333085887417753</v>
+        <v>0.0388161129909419</v>
       </c>
       <c r="D9">
-        <v>-0.02851988471546612</v>
+        <v>-0.01451829431258929</v>
       </c>
       <c r="E9">
-        <v>-0.03212668835125054</v>
+        <v>0.002563016356915619</v>
       </c>
       <c r="F9">
-        <v>-0.05416263280199505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.02886797346575201</v>
+      </c>
+      <c r="G9">
+        <v>-0.02214168415778472</v>
+      </c>
+      <c r="H9">
+        <v>-0.01731537655838919</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.0526788629031598</v>
+        <v>-0.1141492707232279</v>
       </c>
       <c r="C10">
-        <v>0.006611909787619126</v>
+        <v>-0.1686144025462927</v>
       </c>
       <c r="D10">
-        <v>0.160430470811543</v>
+        <v>0.02020381463938708</v>
       </c>
       <c r="E10">
-        <v>-0.05023907033749947</v>
+        <v>-0.02462915071632199</v>
       </c>
       <c r="F10">
-        <v>0.007674261343837836</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.01094326904849088</v>
+      </c>
+      <c r="G10">
+        <v>-0.02323829304657229</v>
+      </c>
+      <c r="H10">
+        <v>-0.03604385729277852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02710812142383357</v>
+        <v>-0.02121494477239533</v>
       </c>
       <c r="C11">
-        <v>0.003233459787231279</v>
+        <v>0.05118670687280421</v>
       </c>
       <c r="D11">
-        <v>-0.04129358740233518</v>
+        <v>-0.000266501479286771</v>
       </c>
       <c r="E11">
-        <v>0.004061829797058837</v>
+        <v>0.008207500239246886</v>
       </c>
       <c r="F11">
-        <v>-0.0226679867550229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03626332937806746</v>
+      </c>
+      <c r="G11">
+        <v>-0.001441858323885261</v>
+      </c>
+      <c r="H11">
+        <v>-0.008809544178375006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03487792444835231</v>
+        <v>-0.0229263737536494</v>
       </c>
       <c r="C12">
-        <v>-0.002386676342356862</v>
+        <v>0.04598821182573959</v>
       </c>
       <c r="D12">
-        <v>-0.03894196924410006</v>
+        <v>-0.00453592141228961</v>
       </c>
       <c r="E12">
-        <v>0.01629991355816714</v>
+        <v>0.01251301562643342</v>
       </c>
       <c r="F12">
-        <v>-0.004206437649730392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01509143698781484</v>
+      </c>
+      <c r="G12">
+        <v>-0.01234871897517641</v>
+      </c>
+      <c r="H12">
+        <v>-0.007185903344727804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0148266397253376</v>
+        <v>-0.006507378096218428</v>
       </c>
       <c r="C13">
-        <v>0.001564206639886781</v>
+        <v>0.02859730882176857</v>
       </c>
       <c r="D13">
-        <v>-0.009448852939192355</v>
+        <v>-0.02306862729125093</v>
       </c>
       <c r="E13">
-        <v>-0.02505659479776508</v>
+        <v>-0.01524116364179092</v>
       </c>
       <c r="F13">
-        <v>-0.05494654722994668</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.05123394282867238</v>
+      </c>
+      <c r="G13">
+        <v>-0.01587687360890752</v>
+      </c>
+      <c r="H13">
+        <v>-0.007419373444334221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01255924574677729</v>
+        <v>-0.002279831064793501</v>
       </c>
       <c r="C14">
-        <v>-0.01520713014730865</v>
+        <v>0.01972206596764172</v>
       </c>
       <c r="D14">
-        <v>-0.007353476243340421</v>
+        <v>-0.007694061736945104</v>
       </c>
       <c r="E14">
-        <v>-0.002253383700301208</v>
+        <v>0.006672920992820132</v>
       </c>
       <c r="F14">
-        <v>-0.04532179105179946</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.01140616348159761</v>
+      </c>
+      <c r="G14">
+        <v>-0.03162830685699309</v>
+      </c>
+      <c r="H14">
+        <v>0.00018580906270821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02507980513111306</v>
+        <v>-0.01953794174753769</v>
       </c>
       <c r="C16">
-        <v>-0.002032948289516804</v>
+        <v>0.04110779756419662</v>
       </c>
       <c r="D16">
-        <v>-0.04136019145179352</v>
+        <v>-6.872992093813833e-05</v>
       </c>
       <c r="E16">
-        <v>0.0002719134970669606</v>
+        <v>0.00596838983656969</v>
       </c>
       <c r="F16">
-        <v>-0.02421236369646019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.02337479719114568</v>
+      </c>
+      <c r="G16">
+        <v>-0.008830415448366257</v>
+      </c>
+      <c r="H16">
+        <v>-0.006747647661516926</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.02704859267795585</v>
+        <v>-0.01769192071196765</v>
       </c>
       <c r="C19">
-        <v>-0.0003280436025149512</v>
+        <v>0.04922344495917826</v>
       </c>
       <c r="D19">
-        <v>-0.03079032550709583</v>
+        <v>-0.0130891957776823</v>
       </c>
       <c r="E19">
-        <v>-0.01308607463374096</v>
+        <v>-0.01995920218109275</v>
       </c>
       <c r="F19">
-        <v>-0.08385975832132053</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.05841499664124671</v>
+      </c>
+      <c r="G19">
+        <v>-0.02907686935891913</v>
+      </c>
+      <c r="H19">
+        <v>0.001483207563929122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.000146176626605467</v>
+        <v>-0.002851046010016647</v>
       </c>
       <c r="C20">
-        <v>-0.004959021298540327</v>
+        <v>0.02659934940558093</v>
       </c>
       <c r="D20">
-        <v>-0.001286203680038363</v>
+        <v>-0.01189748891071733</v>
       </c>
       <c r="E20">
-        <v>-0.0217657205680599</v>
+        <v>-0.0151919112843355</v>
       </c>
       <c r="F20">
-        <v>-0.03083131817250757</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.02485388345911831</v>
+      </c>
+      <c r="G20">
+        <v>-0.01880254618635866</v>
+      </c>
+      <c r="H20">
+        <v>-0.005645496655734518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03039818550915674</v>
+        <v>-0.003525549962112487</v>
       </c>
       <c r="C21">
-        <v>-0.02168166461145126</v>
+        <v>0.02989012415098064</v>
       </c>
       <c r="D21">
-        <v>-0.02009192954308437</v>
+        <v>-0.01494543943117163</v>
       </c>
       <c r="E21">
-        <v>-0.007734346098952659</v>
+        <v>-0.01435879700833976</v>
       </c>
       <c r="F21">
-        <v>-0.03816838601831111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.0384408653264368</v>
+      </c>
+      <c r="G21">
+        <v>-0.03833787732421875</v>
+      </c>
+      <c r="H21">
+        <v>-0.01621283262607186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02382622062155241</v>
+        <v>-0.014827577339836</v>
       </c>
       <c r="C24">
-        <v>2.133624761939073e-05</v>
+        <v>0.0427992905460548</v>
       </c>
       <c r="D24">
-        <v>-0.03227581525247813</v>
+        <v>-0.005220786820580425</v>
       </c>
       <c r="E24">
-        <v>-0.0003795232988604485</v>
+        <v>0.0105481795039948</v>
       </c>
       <c r="F24">
-        <v>-0.01749600488739389</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02900636197931324</v>
+      </c>
+      <c r="G24">
+        <v>-0.003463462560787785</v>
+      </c>
+      <c r="H24">
+        <v>-0.01429923191801521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03568824437813475</v>
+        <v>-0.03061463479912337</v>
       </c>
       <c r="C25">
-        <v>0.001503785516242867</v>
+        <v>0.05203522364508142</v>
       </c>
       <c r="D25">
-        <v>-0.03265378810367313</v>
+        <v>-0.00884686329259388</v>
       </c>
       <c r="E25">
-        <v>-0.009341471410319931</v>
+        <v>0.01649890637511264</v>
       </c>
       <c r="F25">
-        <v>-0.03288289654232378</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.02635479903113877</v>
+      </c>
+      <c r="G25">
+        <v>-0.01305256989146605</v>
+      </c>
+      <c r="H25">
+        <v>-0.005189710502912481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.004086561302400875</v>
+        <v>-0.0003803091128917745</v>
       </c>
       <c r="C26">
-        <v>-0.008149045632937973</v>
+        <v>0.004286240940391032</v>
       </c>
       <c r="D26">
-        <v>-0.00623569793436769</v>
+        <v>-0.02317568388276718</v>
       </c>
       <c r="E26">
-        <v>-0.02883104515101099</v>
+        <v>0.003178740526070959</v>
       </c>
       <c r="F26">
-        <v>-0.02975854556979615</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01087258242225707</v>
+      </c>
+      <c r="G26">
+        <v>-0.01897116737897449</v>
+      </c>
+      <c r="H26">
+        <v>-0.007199028225025493</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.0005530379482579883</v>
+        <v>-0.0007085669114065448</v>
       </c>
       <c r="C27">
-        <v>-0.0006729381194698536</v>
+        <v>-0.0007325357970616138</v>
       </c>
       <c r="D27">
-        <v>0.005771033781724309</v>
+        <v>0.0006891016871075995</v>
       </c>
       <c r="E27">
-        <v>0.01270636986998289</v>
+        <v>9.380565368176374e-06</v>
       </c>
       <c r="F27">
-        <v>-0.0160368384169686</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.001721724791907265</v>
+      </c>
+      <c r="G27">
+        <v>-0.004398395995443925</v>
+      </c>
+      <c r="H27">
+        <v>0.009095203548656668</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.09120096842593758</v>
+        <v>-0.1518793200651797</v>
       </c>
       <c r="C28">
-        <v>0.01242606482775727</v>
+        <v>-0.2036371097860299</v>
       </c>
       <c r="D28">
-        <v>0.2317914150518073</v>
+        <v>0.01248714751418419</v>
       </c>
       <c r="E28">
-        <v>-0.06409715637954318</v>
+        <v>-0.02141571618052649</v>
       </c>
       <c r="F28">
-        <v>0.01456573093387629</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.005303842780778032</v>
+      </c>
+      <c r="G28">
+        <v>-0.03881594343902036</v>
+      </c>
+      <c r="H28">
+        <v>-0.03826630562269338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0130418947682145</v>
+        <v>-0.007087509510853592</v>
       </c>
       <c r="C29">
-        <v>-0.01108212124238922</v>
+        <v>0.01712521244553389</v>
       </c>
       <c r="D29">
-        <v>-0.007612171339252338</v>
+        <v>-0.006605555793913093</v>
       </c>
       <c r="E29">
-        <v>0.000113777391694631</v>
+        <v>0.006183577638283304</v>
       </c>
       <c r="F29">
-        <v>-0.04676173263158878</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.005631575870033377</v>
+      </c>
+      <c r="G29">
+        <v>-0.02794503330253685</v>
+      </c>
+      <c r="H29">
+        <v>0.006741718392896911</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.0347140652342518</v>
+        <v>-0.02582327972104518</v>
       </c>
       <c r="C30">
-        <v>0.04854791344123575</v>
+        <v>0.08136025080888772</v>
       </c>
       <c r="D30">
-        <v>-0.05625355563456184</v>
+        <v>-0.02506152020744566</v>
       </c>
       <c r="E30">
-        <v>-0.01665000849046806</v>
+        <v>-0.002859199150361953</v>
       </c>
       <c r="F30">
-        <v>-0.09131999528411562</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.05205420811551484</v>
+      </c>
+      <c r="G30">
+        <v>0.008637645369919969</v>
+      </c>
+      <c r="H30">
+        <v>0.02256193119657894</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04463646281065538</v>
+        <v>-0.03266240154135349</v>
       </c>
       <c r="C31">
-        <v>-0.01043046214906962</v>
+        <v>0.02099150736519366</v>
       </c>
       <c r="D31">
-        <v>-0.01726848060990698</v>
+        <v>-0.001677629861712206</v>
       </c>
       <c r="E31">
-        <v>0.009288449818309142</v>
+        <v>0.00907824128026106</v>
       </c>
       <c r="F31">
-        <v>-0.02805478494875544</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01432438480536985</v>
+      </c>
+      <c r="G31">
+        <v>-0.02295469390662972</v>
+      </c>
+      <c r="H31">
+        <v>-0.005117150375870568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.002545852191835188</v>
+        <v>6.84032902552288e-05</v>
       </c>
       <c r="C32">
-        <v>-0.02802479815172957</v>
+        <v>0.02869614317018503</v>
       </c>
       <c r="D32">
-        <v>-0.02545833392793265</v>
+        <v>0.006054638666627961</v>
       </c>
       <c r="E32">
-        <v>0.008806826114026002</v>
+        <v>-0.00185605592367301</v>
       </c>
       <c r="F32">
-        <v>-0.05889973782725746</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.09721431530134592</v>
+      </c>
+      <c r="G32">
+        <v>-0.04069168751750438</v>
+      </c>
+      <c r="H32">
+        <v>0.008911754798073534</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03164160662035869</v>
+        <v>-0.01782123146002159</v>
       </c>
       <c r="C33">
-        <v>0.01919996873964508</v>
+        <v>0.04931527240692488</v>
       </c>
       <c r="D33">
-        <v>-0.03531759201507309</v>
+        <v>-0.01258622988193578</v>
       </c>
       <c r="E33">
-        <v>-0.02300908787631201</v>
+        <v>-0.009899247035201609</v>
       </c>
       <c r="F33">
-        <v>-0.04925494048749243</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.03452616259156824</v>
+      </c>
+      <c r="G33">
+        <v>-0.004562628608870576</v>
+      </c>
+      <c r="H33">
+        <v>-0.01923753113445553</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02488313387939834</v>
+        <v>-0.03074596564616574</v>
       </c>
       <c r="C34">
-        <v>-0.009513464856309857</v>
+        <v>0.05417676278390721</v>
       </c>
       <c r="D34">
-        <v>-0.04113591007194092</v>
+        <v>0.007225268820693393</v>
       </c>
       <c r="E34">
-        <v>0.002191130798345669</v>
+        <v>0.0198709540221513</v>
       </c>
       <c r="F34">
-        <v>-0.02748388513184336</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03010914583512609</v>
+      </c>
+      <c r="G34">
+        <v>-0.01707339625613627</v>
+      </c>
+      <c r="H34">
+        <v>-0.01037402276547385</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.0109164381520757</v>
+        <v>-0.007567515304583295</v>
       </c>
       <c r="C36">
-        <v>-0.005524697318667135</v>
+        <v>-0.0003575397874274633</v>
       </c>
       <c r="D36">
-        <v>-0.001146407215273475</v>
+        <v>-0.01029189939746696</v>
       </c>
       <c r="E36">
-        <v>-0.008310202292354227</v>
+        <v>0.0004621350912022623</v>
       </c>
       <c r="F36">
-        <v>-0.02323174755631896</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.008044745039708773</v>
+      </c>
+      <c r="G36">
+        <v>-0.01122713254181239</v>
+      </c>
+      <c r="H36">
+        <v>-0.009542978016199364</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01806514479704514</v>
+        <v>-0.02342441937024483</v>
       </c>
       <c r="C38">
-        <v>0.003226618666635133</v>
+        <v>0.01808741447602321</v>
       </c>
       <c r="D38">
-        <v>-0.003470201616308507</v>
+        <v>0.009076957977845735</v>
       </c>
       <c r="E38">
-        <v>-0.03081271548628327</v>
+        <v>0.002517020794051406</v>
       </c>
       <c r="F38">
-        <v>-0.0451903815955211</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01570000683147476</v>
+      </c>
+      <c r="G38">
+        <v>-0.01615917722845593</v>
+      </c>
+      <c r="H38">
+        <v>-0.004491939940148732</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.01926985678314087</v>
+        <v>-0.01179259184427067</v>
       </c>
       <c r="C39">
-        <v>-0.007963178076974388</v>
+        <v>0.08284061115618617</v>
       </c>
       <c r="D39">
-        <v>-0.05989352229716009</v>
+        <v>-0.01062616790134165</v>
       </c>
       <c r="E39">
-        <v>-0.01641489293620091</v>
+        <v>0.003264170199071159</v>
       </c>
       <c r="F39">
-        <v>-0.05194701208673203</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04953631500941951</v>
+      </c>
+      <c r="G39">
+        <v>-0.004389771641183431</v>
+      </c>
+      <c r="H39">
+        <v>-0.01945961654441019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02323271890239032</v>
+        <v>-0.01472495703754612</v>
       </c>
       <c r="C40">
-        <v>0.003203996974255239</v>
+        <v>0.02998905935119768</v>
       </c>
       <c r="D40">
-        <v>-0.03853578883959671</v>
+        <v>-0.0113380719760621</v>
       </c>
       <c r="E40">
-        <v>-0.01726212615057911</v>
+        <v>-0.0001187153314970639</v>
       </c>
       <c r="F40">
-        <v>-0.017805453045216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03167794133003787</v>
+      </c>
+      <c r="G40">
+        <v>-0.007219686133525548</v>
+      </c>
+      <c r="H40">
+        <v>-0.01619312079696579</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.009399580509992737</v>
+        <v>-0.01114925892561293</v>
       </c>
       <c r="C41">
-        <v>0.001336189869407677</v>
+        <v>-0.007668858909602551</v>
       </c>
       <c r="D41">
-        <v>0.0123148216356821</v>
+        <v>-0.00265877833855264</v>
       </c>
       <c r="E41">
-        <v>-0.01116882124332105</v>
+        <v>0.005166709206283471</v>
       </c>
       <c r="F41">
-        <v>-0.001995020427771211</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.005003332831368441</v>
+      </c>
+      <c r="G41">
+        <v>-0.004738655639433119</v>
+      </c>
+      <c r="H41">
+        <v>-0.008436449826041525</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2232376574865143</v>
+        <v>-0.04336648944177622</v>
       </c>
       <c r="C42">
-        <v>0.1537889177292418</v>
+        <v>0.1029984411987872</v>
       </c>
       <c r="D42">
-        <v>-0.2394045751874254</v>
+        <v>-0.1172065483156652</v>
       </c>
       <c r="E42">
-        <v>-0.61580840661647</v>
+        <v>-0.1107684287770824</v>
       </c>
       <c r="F42">
-        <v>0.6479754550846706</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.3452073680310114</v>
+      </c>
+      <c r="G42">
+        <v>0.4300643837964467</v>
+      </c>
+      <c r="H42">
+        <v>-0.7932410320189551</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01410916692452436</v>
+        <v>-0.02197054010760179</v>
       </c>
       <c r="C43">
-        <v>0.004651922114157984</v>
+        <v>0.00113004112017263</v>
       </c>
       <c r="D43">
-        <v>0.00893575508412172</v>
+        <v>-0.002408451770547387</v>
       </c>
       <c r="E43">
-        <v>-0.01485552707467309</v>
+        <v>0.002388807886108128</v>
       </c>
       <c r="F43">
-        <v>-0.009334989863267073</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01306215808980834</v>
+      </c>
+      <c r="G43">
+        <v>-0.003395126768729965</v>
+      </c>
+      <c r="H43">
+        <v>-0.01245170158578275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.006471989183406838</v>
+        <v>-0.006585722950127256</v>
       </c>
       <c r="C44">
-        <v>-0.01197342447972345</v>
+        <v>0.04690890497177842</v>
       </c>
       <c r="D44">
-        <v>-0.01701636852189703</v>
+        <v>-0.005787828672951088</v>
       </c>
       <c r="E44">
-        <v>-0.03618674684196878</v>
+        <v>-0.009358549286583464</v>
       </c>
       <c r="F44">
-        <v>-0.06731651636856352</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.03612091729262919</v>
+      </c>
+      <c r="G44">
+        <v>-0.02120324255947941</v>
+      </c>
+      <c r="H44">
+        <v>-0.02381838723841185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01226663204443614</v>
+        <v>0.001621071958343643</v>
       </c>
       <c r="C46">
-        <v>-0.002407906907767547</v>
+        <v>0.00944969758275303</v>
       </c>
       <c r="D46">
-        <v>-0.03658331798350775</v>
+        <v>-0.01112191483695763</v>
       </c>
       <c r="E46">
-        <v>-0.01146915704766234</v>
+        <v>-0.0004886488682790185</v>
       </c>
       <c r="F46">
-        <v>-0.07202970935945947</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.006828068691441114</v>
+      </c>
+      <c r="G46">
+        <v>-0.01762911131781937</v>
+      </c>
+      <c r="H46">
+        <v>0.00339349305489356</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.06802012769768341</v>
+        <v>-0.05440857918952988</v>
       </c>
       <c r="C47">
-        <v>0.005885898070158362</v>
+        <v>0.05481699492553999</v>
       </c>
       <c r="D47">
-        <v>-0.01788102641865594</v>
+        <v>0.006463501427364129</v>
       </c>
       <c r="E47">
-        <v>0.03194402971600997</v>
+        <v>0.008553940107605938</v>
       </c>
       <c r="F47">
-        <v>0.001308815812889283</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.04473192519305146</v>
+      </c>
+      <c r="G47">
+        <v>-0.02176361985977433</v>
+      </c>
+      <c r="H47">
+        <v>0.008310593824134108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02140232821582325</v>
+        <v>-0.01022188598187341</v>
       </c>
       <c r="C48">
-        <v>-0.004020969949133855</v>
+        <v>0.004230989151632563</v>
       </c>
       <c r="D48">
-        <v>-0.005565722343153091</v>
+        <v>-0.000341598329639645</v>
       </c>
       <c r="E48">
-        <v>-0.00567585692880476</v>
+        <v>0.001774312173556687</v>
       </c>
       <c r="F48">
-        <v>-0.02728640411502117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.003080186756704252</v>
+      </c>
+      <c r="G48">
+        <v>-0.01576316769135583</v>
+      </c>
+      <c r="H48">
+        <v>-0.004108813978055063</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07923981733814314</v>
+        <v>-0.05725328603761701</v>
       </c>
       <c r="C50">
-        <v>-0.02198632383398981</v>
+        <v>0.05472091630188568</v>
       </c>
       <c r="D50">
-        <v>-0.04012872675501441</v>
+        <v>0.005230390956755598</v>
       </c>
       <c r="E50">
-        <v>0.01037270357973894</v>
+        <v>0.009865831484549734</v>
       </c>
       <c r="F50">
-        <v>-0.02636994254959412</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.04238226374148057</v>
+      </c>
+      <c r="G50">
+        <v>-0.04594005719871163</v>
+      </c>
+      <c r="H50">
+        <v>-0.0044766702393178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.007290997507149252</v>
+        <v>-0.006993590118748229</v>
       </c>
       <c r="C51">
-        <v>-0.007770652687419667</v>
+        <v>0.02178990966054813</v>
       </c>
       <c r="D51">
-        <v>0.01450894603279111</v>
+        <v>-0.008037335666151803</v>
       </c>
       <c r="E51">
-        <v>-0.04231828012257402</v>
+        <v>0.002665297010283501</v>
       </c>
       <c r="F51">
-        <v>-0.06409105759250282</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.0441630485826446</v>
+      </c>
+      <c r="G51">
+        <v>-0.02277466504237247</v>
+      </c>
+      <c r="H51">
+        <v>-0.02507197902570379</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1011829201447504</v>
+        <v>-0.07728440663976716</v>
       </c>
       <c r="C53">
-        <v>-0.004842874225052881</v>
+        <v>0.08147116075098726</v>
       </c>
       <c r="D53">
-        <v>-0.04831076579488127</v>
+        <v>0.007246307514782708</v>
       </c>
       <c r="E53">
-        <v>0.05888410268516704</v>
+        <v>0.03315053829685474</v>
       </c>
       <c r="F53">
-        <v>0.007391057050501782</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.06282567930612049</v>
+      </c>
+      <c r="G53">
+        <v>-0.02601674588942853</v>
+      </c>
+      <c r="H53">
+        <v>0.005549904723992735</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02381077060136456</v>
+        <v>-0.02282831639361687</v>
       </c>
       <c r="C54">
-        <v>-0.00868825181501259</v>
+        <v>-0.00183630644789372</v>
       </c>
       <c r="D54">
-        <v>0.00211599783743707</v>
+        <v>0.005269312728560399</v>
       </c>
       <c r="E54">
-        <v>0.01369797824889953</v>
+        <v>-0.001674052181592391</v>
       </c>
       <c r="F54">
-        <v>-0.03481829238631182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.0128278535538456</v>
+      </c>
+      <c r="G54">
+        <v>-0.0232661566010255</v>
+      </c>
+      <c r="H54">
+        <v>-0.0006300789396238608</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.07517874844900452</v>
+        <v>-0.05439543218473171</v>
       </c>
       <c r="C55">
-        <v>0.001136084085147901</v>
+        <v>0.06866329396513887</v>
       </c>
       <c r="D55">
-        <v>-0.06507704346186143</v>
+        <v>0.005657513761125147</v>
       </c>
       <c r="E55">
-        <v>0.03466125124212627</v>
+        <v>0.02140409937166131</v>
       </c>
       <c r="F55">
-        <v>0.009615820396192741</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.05519416642347673</v>
+      </c>
+      <c r="G55">
+        <v>-0.01337899733971763</v>
+      </c>
+      <c r="H55">
+        <v>0.006089269134684053</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1443810515193772</v>
+        <v>-0.1177411501760041</v>
       </c>
       <c r="C56">
-        <v>0.004738042292086895</v>
+        <v>0.1147536398158513</v>
       </c>
       <c r="D56">
-        <v>-0.0636449467365319</v>
+        <v>0.0160520442204451</v>
       </c>
       <c r="E56">
-        <v>0.08250339862105557</v>
+        <v>0.0341818678232812</v>
       </c>
       <c r="F56">
-        <v>0.03674247888425017</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.1061856531634987</v>
+      </c>
+      <c r="G56">
+        <v>-0.01419709708821755</v>
+      </c>
+      <c r="H56">
+        <v>0.02882510881812558</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03210489433122924</v>
+        <v>-0.01435475006293007</v>
       </c>
       <c r="C57">
-        <v>0.009010486316682009</v>
+        <v>0.01732864033889939</v>
       </c>
       <c r="D57">
-        <v>-0.01566926651485623</v>
+        <v>-0.02352762152520668</v>
       </c>
       <c r="E57">
-        <v>-0.04419419269143589</v>
+        <v>-0.03010779311437956</v>
       </c>
       <c r="F57">
-        <v>-0.03228576593033763</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.03112257702026951</v>
+      </c>
+      <c r="G57">
+        <v>-0.01881540282887952</v>
+      </c>
+      <c r="H57">
+        <v>-0.01303285181522373</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1932561620287308</v>
+        <v>-0.07178219304658542</v>
       </c>
       <c r="C58">
-        <v>0.1356315773135881</v>
+        <v>0.1415098800871489</v>
       </c>
       <c r="D58">
-        <v>-0.1484598739382877</v>
+        <v>-0.01541798766228815</v>
       </c>
       <c r="E58">
-        <v>-0.4132168156221986</v>
+        <v>-0.9634794847992016</v>
       </c>
       <c r="F58">
-        <v>-0.5448782300800187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.02300631538611497</v>
+      </c>
+      <c r="G58">
+        <v>-0.09427368579758529</v>
+      </c>
+      <c r="H58">
+        <v>0.1151562300687144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.08710358293883454</v>
+        <v>-0.1827892395044032</v>
       </c>
       <c r="C59">
-        <v>0.03173952695322382</v>
+        <v>-0.1895205910630049</v>
       </c>
       <c r="D59">
-        <v>0.1965651573719174</v>
+        <v>0.02056110352508499</v>
       </c>
       <c r="E59">
-        <v>-0.04916479930994186</v>
+        <v>-0.01598332468963928</v>
       </c>
       <c r="F59">
-        <v>-0.03645538300224496</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01646584507087453</v>
+      </c>
+      <c r="G59">
+        <v>-0.0170439717483396</v>
+      </c>
+      <c r="H59">
+        <v>-0.01080225532519248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1967221561753444</v>
+        <v>-0.293598754910347</v>
       </c>
       <c r="C60">
-        <v>0.04763312844136</v>
+        <v>0.1294758383679114</v>
       </c>
       <c r="D60">
-        <v>0.02497813418253927</v>
+        <v>0.004009523728953438</v>
       </c>
       <c r="E60">
-        <v>-0.08382387956389947</v>
+        <v>0.05870682363305752</v>
       </c>
       <c r="F60">
-        <v>-0.1002790563574725</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.3716259799343375</v>
+      </c>
+      <c r="G60">
+        <v>0.09504554845296748</v>
+      </c>
+      <c r="H60">
+        <v>-0.04284208553318085</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02560720370034743</v>
+        <v>-0.01799720519980437</v>
       </c>
       <c r="C61">
-        <v>-0.001851962327985593</v>
+        <v>0.06616565886038911</v>
       </c>
       <c r="D61">
-        <v>-0.04857468930204754</v>
+        <v>-0.003784154139296799</v>
       </c>
       <c r="E61">
-        <v>-0.009700555362717782</v>
+        <v>0.006572217830453715</v>
       </c>
       <c r="F61">
-        <v>-0.02656268255203454</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03666900152987864</v>
+      </c>
+      <c r="G61">
+        <v>-0.009644063077090535</v>
+      </c>
+      <c r="H61">
+        <v>-0.009468054145502135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01337047799035139</v>
+        <v>-0.006781661898454243</v>
       </c>
       <c r="C63">
-        <v>-0.006175546054933614</v>
+        <v>0.02807489972891215</v>
       </c>
       <c r="D63">
-        <v>-0.02203020974802285</v>
+        <v>-0.007304139605755166</v>
       </c>
       <c r="E63">
-        <v>-0.001445146283154434</v>
+        <v>0.01385205530371806</v>
       </c>
       <c r="F63">
-        <v>-0.0122008235268062</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.001421965307894021</v>
+      </c>
+      <c r="G63">
+        <v>-0.02120543811333135</v>
+      </c>
+      <c r="H63">
+        <v>-9.805535880974274e-05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04279112478514865</v>
+        <v>-0.03949345281776744</v>
       </c>
       <c r="C64">
-        <v>-0.0009354638196509371</v>
+        <v>0.038585164556466</v>
       </c>
       <c r="D64">
-        <v>-0.02786216249407453</v>
+        <v>-0.002890916885290226</v>
       </c>
       <c r="E64">
-        <v>-0.001930643380787764</v>
+        <v>0.01790131603786776</v>
       </c>
       <c r="F64">
-        <v>-0.02229447571009612</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.01576375585764562</v>
+      </c>
+      <c r="G64">
+        <v>-0.002780386865083051</v>
+      </c>
+      <c r="H64">
+        <v>-0.02604302866001443</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.0573891807714968</v>
+        <v>-0.06444508338418736</v>
       </c>
       <c r="C65">
-        <v>-0.00489867179682905</v>
+        <v>0.08164598195248489</v>
       </c>
       <c r="D65">
-        <v>-0.04646672682049214</v>
+        <v>-0.01297662373235449</v>
       </c>
       <c r="E65">
-        <v>-0.0002386630226953096</v>
+        <v>0.01626762762918755</v>
       </c>
       <c r="F65">
-        <v>-0.03739916263412135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.02949946137348276</v>
+      </c>
+      <c r="G65">
+        <v>-0.007564485270585721</v>
+      </c>
+      <c r="H65">
+        <v>0.01221667906040669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04253226864159264</v>
+        <v>-0.02764206898580677</v>
       </c>
       <c r="C66">
-        <v>0.01084365408472515</v>
+        <v>0.1228992136381669</v>
       </c>
       <c r="D66">
-        <v>-0.07040210422702373</v>
+        <v>-0.008837093338088745</v>
       </c>
       <c r="E66">
-        <v>0.02329322126560943</v>
+        <v>0.006934704087303372</v>
       </c>
       <c r="F66">
-        <v>-0.07226527102154925</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06229527135810535</v>
+      </c>
+      <c r="G66">
+        <v>-0.002469607495859377</v>
+      </c>
+      <c r="H66">
+        <v>0.008833621177462187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03159792330408442</v>
+        <v>-0.04657970413893497</v>
       </c>
       <c r="C67">
-        <v>0.007090130567348453</v>
+        <v>0.02669265449786476</v>
       </c>
       <c r="D67">
-        <v>0.002755612353433252</v>
+        <v>0.008038914870001823</v>
       </c>
       <c r="E67">
-        <v>-0.01312424912927185</v>
+        <v>0.009126883284668676</v>
       </c>
       <c r="F67">
-        <v>-0.03514389355236147</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01436401396497945</v>
+      </c>
+      <c r="G67">
+        <v>-0.01804780178823431</v>
+      </c>
+      <c r="H67">
+        <v>0.002880116234322323</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.08997854123503038</v>
+        <v>-0.1745606032341585</v>
       </c>
       <c r="C68">
-        <v>0.03275771316519606</v>
+        <v>-0.2313961607950988</v>
       </c>
       <c r="D68">
-        <v>0.2233053031266983</v>
+        <v>0.001884859260448952</v>
       </c>
       <c r="E68">
-        <v>-0.04520470602669757</v>
+        <v>-0.02713800273217483</v>
       </c>
       <c r="F68">
-        <v>-0.0004258811206872896</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.01682511107355086</v>
+      </c>
+      <c r="G68">
+        <v>-0.01579299655540281</v>
+      </c>
+      <c r="H68">
+        <v>-0.02338089745812154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05444373975967611</v>
+        <v>-0.05597568440959182</v>
       </c>
       <c r="C69">
-        <v>0.004668047644880701</v>
+        <v>0.05384448411667705</v>
       </c>
       <c r="D69">
-        <v>-0.02741116333263777</v>
+        <v>0.01080885498199812</v>
       </c>
       <c r="E69">
-        <v>0.02921074540373076</v>
+        <v>0.02778881109961537</v>
       </c>
       <c r="F69">
-        <v>-0.01353267347522716</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.01829249869719713</v>
+      </c>
+      <c r="G69">
+        <v>-0.01619985195091058</v>
+      </c>
+      <c r="H69">
+        <v>0.008532648357644564</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.0831156339208874</v>
+        <v>-0.160156037646246</v>
       </c>
       <c r="C71">
-        <v>0.01827827274037848</v>
+        <v>-0.1993573621936237</v>
       </c>
       <c r="D71">
-        <v>0.2202656105215362</v>
+        <v>0.00895165928946366</v>
       </c>
       <c r="E71">
-        <v>-0.08725319946568226</v>
+        <v>-0.03984511887503157</v>
       </c>
       <c r="F71">
-        <v>0.03505657164574283</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.01965023568554753</v>
+      </c>
+      <c r="G71">
+        <v>-0.02169974866574582</v>
+      </c>
+      <c r="H71">
+        <v>-0.04766293825908895</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1051973701231866</v>
+        <v>-0.07078275515339698</v>
       </c>
       <c r="C72">
-        <v>0.008512645748220913</v>
+        <v>0.09442429381886282</v>
       </c>
       <c r="D72">
-        <v>-0.1076220904242729</v>
+        <v>0.01280773260093527</v>
       </c>
       <c r="E72">
-        <v>0.001884750104302748</v>
+        <v>0.03070691068364607</v>
       </c>
       <c r="F72">
-        <v>-0.1606964132531259</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.04159021413368825</v>
+      </c>
+      <c r="G72">
+        <v>-0.002263366919712187</v>
+      </c>
+      <c r="H72">
+        <v>0.02539803530902817</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2372626630637064</v>
+        <v>-0.3860190456795122</v>
       </c>
       <c r="C73">
-        <v>0.1060587142661793</v>
+        <v>0.1958847111801452</v>
       </c>
       <c r="D73">
-        <v>-0.006493147492043926</v>
+        <v>-0.0002116959736126008</v>
       </c>
       <c r="E73">
-        <v>-0.1500766103667071</v>
+        <v>0.04081087645419743</v>
       </c>
       <c r="F73">
-        <v>-0.103265567088959</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.4791345492271153</v>
+      </c>
+      <c r="G73">
+        <v>0.1569960596991114</v>
+      </c>
+      <c r="H73">
+        <v>-0.1010059377180826</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1334806815159977</v>
+        <v>-0.1003205938584567</v>
       </c>
       <c r="C74">
-        <v>0.01207371800038411</v>
+        <v>0.1230478953098805</v>
       </c>
       <c r="D74">
-        <v>-0.06642231986131135</v>
+        <v>0.01335357201167263</v>
       </c>
       <c r="E74">
-        <v>0.07259653414620097</v>
+        <v>0.03631156765362974</v>
       </c>
       <c r="F74">
-        <v>0.02885784461520799</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.08209553927047744</v>
+      </c>
+      <c r="G74">
+        <v>-0.02767928938383009</v>
+      </c>
+      <c r="H74">
+        <v>0.01060991744851112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2661786575143898</v>
+        <v>-0.2229213498614049</v>
       </c>
       <c r="C75">
-        <v>0.03229793571466745</v>
+        <v>0.185072433690106</v>
       </c>
       <c r="D75">
-        <v>-0.09239938639539275</v>
+        <v>0.03391274747731943</v>
       </c>
       <c r="E75">
-        <v>0.1722926678675624</v>
+        <v>0.04316755703756979</v>
       </c>
       <c r="F75">
-        <v>0.01705062499178575</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.2176961421053935</v>
+      </c>
+      <c r="G75">
+        <v>-0.02174096894187845</v>
+      </c>
+      <c r="H75">
+        <v>0.07979216842084537</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2718415525356691</v>
+        <v>-0.1411283310440286</v>
       </c>
       <c r="C76">
-        <v>0.01225996991845901</v>
+        <v>0.1516260923774679</v>
       </c>
       <c r="D76">
-        <v>-0.1110206467870715</v>
+        <v>0.02765559539892512</v>
       </c>
       <c r="E76">
-        <v>0.2243076415678821</v>
+        <v>0.06414326283661742</v>
       </c>
       <c r="F76">
-        <v>0.06446536056189571</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1840899087393847</v>
+      </c>
+      <c r="G76">
+        <v>-0.04257588904353649</v>
+      </c>
+      <c r="H76">
+        <v>0.05861893610915585</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.07983195352097738</v>
+        <v>-0.04430650343395756</v>
       </c>
       <c r="C77">
-        <v>0.01144058015396915</v>
+        <v>0.07270195277920445</v>
       </c>
       <c r="D77">
-        <v>-0.07222463175590933</v>
+        <v>-0.01214140485735263</v>
       </c>
       <c r="E77">
-        <v>-0.1111690480202554</v>
+        <v>-0.0287689774089477</v>
       </c>
       <c r="F77">
-        <v>-0.0200382120794204</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.01080212384567689</v>
+      </c>
+      <c r="G77">
+        <v>-0.02037457985526216</v>
+      </c>
+      <c r="H77">
+        <v>-0.03644652448612659</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03297059848044569</v>
+        <v>-0.02889205274143937</v>
       </c>
       <c r="C78">
-        <v>-0.004066877808447488</v>
+        <v>0.05982517257256341</v>
       </c>
       <c r="D78">
-        <v>-0.05278429029965055</v>
+        <v>-0.00434396793321224</v>
       </c>
       <c r="E78">
-        <v>-0.02665746417469863</v>
+        <v>-0.004741351149539772</v>
       </c>
       <c r="F78">
-        <v>-0.0706019226900397</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.04784593529150116</v>
+      </c>
+      <c r="G78">
+        <v>-0.01330826466271976</v>
+      </c>
+      <c r="H78">
+        <v>-0.005299910171837605</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2397553703236849</v>
+        <v>-0.05245712012271767</v>
       </c>
       <c r="C80">
-        <v>-0.9430220225304935</v>
+        <v>0.0872440263000543</v>
       </c>
       <c r="D80">
-        <v>0.0502052594876064</v>
+        <v>-0.01133940944564567</v>
       </c>
       <c r="E80">
-        <v>-0.1449639659628503</v>
+        <v>0.06315757279893046</v>
       </c>
       <c r="F80">
-        <v>0.0220137368200488</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.002738482099229087</v>
+      </c>
+      <c r="G80">
+        <v>-0.8470116461654373</v>
+      </c>
+      <c r="H80">
+        <v>-0.4425849785227438</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.2068346419797032</v>
+        <v>-0.1339642572733151</v>
       </c>
       <c r="C81">
-        <v>0.0143172881748127</v>
+        <v>0.1057492778326156</v>
       </c>
       <c r="D81">
-        <v>-0.05841357245959632</v>
+        <v>0.02049970946257146</v>
       </c>
       <c r="E81">
-        <v>0.1407664017673106</v>
+        <v>0.0240574854681697</v>
       </c>
       <c r="F81">
-        <v>-0.006122870079727585</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1405169018579382</v>
+      </c>
+      <c r="G81">
+        <v>-0.03461062019719229</v>
+      </c>
+      <c r="H81">
+        <v>0.04007078444117136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.02099105094310078</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.01498352468850797</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.001891121991585528</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.0143307640545149</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.01201126343344842</v>
+      </c>
+      <c r="G82">
+        <v>0.003372056749719737</v>
+      </c>
+      <c r="H82">
+        <v>0.005322195276452726</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03200066282109098</v>
+        <v>-0.0209230381374467</v>
       </c>
       <c r="C83">
-        <v>0.007364302189559903</v>
+        <v>0.02041047508029881</v>
       </c>
       <c r="D83">
-        <v>-0.008794863431069562</v>
+        <v>-0.004657309199476334</v>
       </c>
       <c r="E83">
-        <v>-0.03645202939987786</v>
+        <v>-0.01618407480613409</v>
       </c>
       <c r="F83">
-        <v>-0.03330499950898592</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.03353420229591632</v>
+      </c>
+      <c r="G83">
+        <v>-0.01694805131118135</v>
+      </c>
+      <c r="H83">
+        <v>-0.01368335669148118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2572004366042724</v>
+        <v>-0.214394865308809</v>
       </c>
       <c r="C85">
-        <v>0.04101205336730079</v>
+        <v>0.1977605671404156</v>
       </c>
       <c r="D85">
-        <v>-0.1153663916911366</v>
+        <v>0.02301923450729321</v>
       </c>
       <c r="E85">
-        <v>0.1962391534375943</v>
+        <v>0.07599142498936901</v>
       </c>
       <c r="F85">
-        <v>0.03743280733200951</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.2248052799385978</v>
+      </c>
+      <c r="G85">
+        <v>0.01896924422480358</v>
+      </c>
+      <c r="H85">
+        <v>0.1047002019434663</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.003789916790112702</v>
+        <v>-0.004527079612537653</v>
       </c>
       <c r="C86">
-        <v>-0.009319153889934829</v>
+        <v>0.03120934026767096</v>
       </c>
       <c r="D86">
-        <v>-0.04268186212030995</v>
+        <v>-0.009003502883612928</v>
       </c>
       <c r="E86">
-        <v>-0.03004010612875032</v>
+        <v>-0.006288287770244948</v>
       </c>
       <c r="F86">
-        <v>-0.0704041362246861</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02827647367281754</v>
+      </c>
+      <c r="G86">
+        <v>-0.0337329184221501</v>
+      </c>
+      <c r="H86">
+        <v>-0.04193203614138349</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.0292287251213908</v>
+        <v>-0.007238687634267826</v>
       </c>
       <c r="C87">
-        <v>-0.005845737546800371</v>
+        <v>0.03669522212022868</v>
       </c>
       <c r="D87">
-        <v>-0.02816897282737028</v>
+        <v>-0.009933133637892572</v>
       </c>
       <c r="E87">
-        <v>-0.06059893620727517</v>
+        <v>-0.04197394883008846</v>
       </c>
       <c r="F87">
-        <v>-0.09102802192980178</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.05869962760792082</v>
+      </c>
+      <c r="G87">
+        <v>-0.02441211633578561</v>
+      </c>
+      <c r="H87">
+        <v>-0.02743260377633969</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.04390643603186569</v>
+        <v>-0.06439708548931575</v>
       </c>
       <c r="C88">
-        <v>0.007967006226245826</v>
+        <v>0.04240058937177119</v>
       </c>
       <c r="D88">
-        <v>0.003038883260578517</v>
+        <v>-0.01893319726602623</v>
       </c>
       <c r="E88">
-        <v>0.003120196856855324</v>
+        <v>0.01148119111463471</v>
       </c>
       <c r="F88">
-        <v>0.007300530594272826</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.0282279174028511</v>
+      </c>
+      <c r="G88">
+        <v>-0.01035785008504646</v>
+      </c>
+      <c r="H88">
+        <v>0.003509185194833604</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1483896791477843</v>
+        <v>-0.2715260039151227</v>
       </c>
       <c r="C89">
-        <v>0.06445813413164332</v>
+        <v>-0.336730929192431</v>
       </c>
       <c r="D89">
-        <v>0.3758020776576838</v>
+        <v>0.01371658800040352</v>
       </c>
       <c r="E89">
-        <v>-0.01296026767008735</v>
+        <v>-0.01278591978745948</v>
       </c>
       <c r="F89">
-        <v>-0.02878609207509676</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.01308778292163697</v>
+      </c>
+      <c r="G89">
+        <v>-0.01655613479795476</v>
+      </c>
+      <c r="H89">
+        <v>9.067628860103605e-05</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09147355487336448</v>
+        <v>-0.228739335286385</v>
       </c>
       <c r="C90">
-        <v>0.05891136454548171</v>
+        <v>-0.3112917042477403</v>
       </c>
       <c r="D90">
-        <v>0.3404578189192292</v>
+        <v>0.014725237792371</v>
       </c>
       <c r="E90">
-        <v>-0.02038496755767747</v>
+        <v>-0.02708466605884245</v>
       </c>
       <c r="F90">
-        <v>0.0306756291687278</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04343356472063494</v>
+      </c>
+      <c r="G90">
+        <v>0.001460049437282533</v>
+      </c>
+      <c r="H90">
+        <v>-0.005474146303910702</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2953812944333157</v>
+        <v>-0.1887112163541643</v>
       </c>
       <c r="C91">
-        <v>0.04268143881987562</v>
+        <v>0.1463772744719194</v>
       </c>
       <c r="D91">
-        <v>-0.1285215139512817</v>
+        <v>0.0299212732088046</v>
       </c>
       <c r="E91">
-        <v>0.21168204384243</v>
+        <v>0.05931376571481593</v>
       </c>
       <c r="F91">
-        <v>0.115679402711035</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2210434598148131</v>
+      </c>
+      <c r="G91">
+        <v>-0.02011326152934155</v>
+      </c>
+      <c r="H91">
+        <v>0.0619155211625472</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.21388148851612</v>
+        <v>-0.24715288172583</v>
       </c>
       <c r="C92">
-        <v>0.06966132656209745</v>
+        <v>-0.2369222752391508</v>
       </c>
       <c r="D92">
-        <v>0.3760918853442243</v>
+        <v>0.05691561023271925</v>
       </c>
       <c r="E92">
-        <v>0.08150617360328438</v>
+        <v>-0.03949852927480474</v>
       </c>
       <c r="F92">
-        <v>0.03105516034188286</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1223137794807557</v>
+      </c>
+      <c r="G92">
+        <v>-0.065434945455631</v>
+      </c>
+      <c r="H92">
+        <v>0.02784590970298035</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1405358050025518</v>
+        <v>-0.2591408768887998</v>
       </c>
       <c r="C93">
-        <v>0.08575009827282971</v>
+        <v>-0.2953927101232147</v>
       </c>
       <c r="D93">
-        <v>0.3953314593205006</v>
+        <v>0.0226773178566895</v>
       </c>
       <c r="E93">
-        <v>-0.05828348213187459</v>
+        <v>-0.03221009131607856</v>
       </c>
       <c r="F93">
-        <v>0.06830211957451254</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01869270153608756</v>
+      </c>
+      <c r="G93">
+        <v>0.01488615900653936</v>
+      </c>
+      <c r="H93">
+        <v>-0.03140199925575857</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3247433264269338</v>
+        <v>-0.2511413266428375</v>
       </c>
       <c r="C94">
-        <v>0.0726521644925566</v>
+        <v>0.1848242517133307</v>
       </c>
       <c r="D94">
-        <v>-0.08329117525410329</v>
+        <v>0.01904310529617756</v>
       </c>
       <c r="E94">
-        <v>0.2516710291217911</v>
+        <v>0.07153196530852676</v>
       </c>
       <c r="F94">
-        <v>-0.0005879625834565161</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3420145409950084</v>
+      </c>
+      <c r="G94">
+        <v>0.005884808369412274</v>
+      </c>
+      <c r="H94">
+        <v>0.2759459782136274</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.05130881210942644</v>
+        <v>-0.06059933968987227</v>
       </c>
       <c r="C95">
-        <v>0.07461695834766402</v>
+        <v>0.1202732684530341</v>
       </c>
       <c r="D95">
-        <v>-0.02169912288606225</v>
+        <v>0.01012532443891415</v>
       </c>
       <c r="E95">
-        <v>0.03669118433988171</v>
+        <v>-0.01979533750604808</v>
       </c>
       <c r="F95">
-        <v>-0.06002472110434947</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.0998694224543103</v>
+      </c>
+      <c r="G95">
+        <v>0.06595213038621044</v>
+      </c>
+      <c r="H95">
+        <v>0.03135775647489514</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1894708739569323</v>
+        <v>-0.2109479239543516</v>
       </c>
       <c r="C98">
-        <v>0.0660497487276118</v>
+        <v>0.07924735899260395</v>
       </c>
       <c r="D98">
-        <v>0.03813041593786537</v>
+        <v>0.02561714145604044</v>
       </c>
       <c r="E98">
-        <v>-0.1487933374612924</v>
+        <v>-0.01777809074784751</v>
       </c>
       <c r="F98">
-        <v>-0.1019280604185597</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.2478962949928918</v>
+      </c>
+      <c r="G98">
+        <v>0.0834240928921651</v>
+      </c>
+      <c r="H98">
+        <v>-0.09395552351772678</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.005542890893284901</v>
+        <v>-0.001790983843455226</v>
       </c>
       <c r="C101">
-        <v>-0.004772423237506418</v>
+        <v>0.01796446617385168</v>
       </c>
       <c r="D101">
-        <v>-0.02683611805906848</v>
+        <v>-0.007413990256856519</v>
       </c>
       <c r="E101">
-        <v>-0.06480825492511813</v>
+        <v>-0.0310223825183267</v>
       </c>
       <c r="F101">
-        <v>-0.1895960384754384</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.01497736932304953</v>
+      </c>
+      <c r="G101">
+        <v>-0.03645320739885804</v>
+      </c>
+      <c r="H101">
+        <v>0.02316232781895423</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1385833399559762</v>
+        <v>-0.1098368703166396</v>
       </c>
       <c r="C102">
-        <v>0.01705022095383721</v>
+        <v>0.09107905484547006</v>
       </c>
       <c r="D102">
-        <v>-0.04729095273421934</v>
+        <v>0.003017811093696768</v>
       </c>
       <c r="E102">
-        <v>0.0980433195474979</v>
+        <v>0.04396242808162648</v>
       </c>
       <c r="F102">
-        <v>0.05364353966385029</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.0809917435855729</v>
+      </c>
+      <c r="G102">
+        <v>0.000217218249679052</v>
+      </c>
+      <c r="H102">
+        <v>0.02593167942927695</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04205794498626204</v>
+        <v>-0.007814504861431331</v>
       </c>
       <c r="C103">
-        <v>-0.0135251308929571</v>
+        <v>0.008669976153144698</v>
       </c>
       <c r="D103">
-        <v>-0.01793428478996882</v>
+        <v>0.0001594242018883819</v>
       </c>
       <c r="E103">
-        <v>0.01976137878111388</v>
+        <v>0.0006585603305220646</v>
       </c>
       <c r="F103">
-        <v>-0.004173384491931862</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01469579366599667</v>
+      </c>
+      <c r="G103">
+        <v>-0.01748331272280211</v>
+      </c>
+      <c r="H103">
+        <v>-0.005009471000308794</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.0670209553979102</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.03889706009654071</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9838103926977936</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03594148830377847</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.009923277813298393</v>
+      </c>
+      <c r="G104">
+        <v>-0.0387641573920267</v>
+      </c>
+      <c r="H104">
+        <v>0.1145290365240302</v>
       </c>
     </row>
   </sheetData>
